--- a/data/logs.xlsx
+++ b/data/logs.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D477"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -9832,6 +9832,146 @@
         <v>21222</v>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Window changed to: Exam - Google Chrome</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2024-11-25 21:01:14</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>21222</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Window changed to: app.py - last dance - Visual Studio Code</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2024-11-25 21:01:25</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>21222</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Speaking Detected</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2024-11-25 21:01:29</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>21222</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Speaking Detected</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2024-11-25 21:01:29</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>21222</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Speaking Detected</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2024-11-25 21:01:30</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>21222</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Speaking Detected</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2024-11-25 21:01:30</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>21222</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Window changed to: Exam - Google Chrome</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2024-11-25 21:01:31</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>21222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
